--- a/biology/Médecine/Centre_hospitalier_national_El-Maarouf/Centre_hospitalier_national_El-Maarouf.xlsx
+++ b/biology/Médecine/Centre_hospitalier_national_El-Maarouf/Centre_hospitalier_national_El-Maarouf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le centre hospitalier national El-Maarouf est le plus grand hôpital des Comores. Situé à Moroni, il a été inauguré en 1954 sous le nom d'hôpital Georges Boussenot avant d'être rebaptisé du nom du cheikh Saïd Mohamed bin Cheikh Ahmed Al Maarouf[1].
-Les infrastructures étant vétustes, de nouveaux locaux sont en construction depuis 2017[2],[3] pour une livraison en 2023[4].
+Le centre hospitalier national El-Maarouf est le plus grand hôpital des Comores. Situé à Moroni, il a été inauguré en 1954 sous le nom d'hôpital Georges Boussenot avant d'être rebaptisé du nom du cheikh Saïd Mohamed bin Cheikh Ahmed Al Maarouf.
+Les infrastructures étant vétustes, de nouveaux locaux sont en construction depuis 2017, pour une livraison en 2023.
 </t>
         </is>
       </c>
